--- a/files/separadas/repeat_p13.xlsx
+++ b/files/separadas/repeat_p13.xlsx
@@ -82,7 +82,7 @@
     <t>c3</t>
   </si>
   <si>
-    <t>nota_iniciativa</t>
+    <t>m_i</t>
   </si>
   <si>
     <t>BIM</t>

--- a/files/separadas/repeat_p13.xlsx
+++ b/files/separadas/repeat_p13.xlsx
@@ -9152,19 +9152,19 @@
         <v>680</v>
       </c>
       <c r="T133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U133">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V133">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W133">
-        <v>0</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="X133">
-        <v>0</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:24">

--- a/files/separadas/repeat_p13.xlsx
+++ b/files/separadas/repeat_p13.xlsx
@@ -9152,19 +9152,19 @@
         <v>680</v>
       </c>
       <c r="T133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U133">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="V133">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W133">
-        <v>0.7000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X133">
-        <v>0.7000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:24">

--- a/files/separadas/repeat_p13.xlsx
+++ b/files/separadas/repeat_p13.xlsx
@@ -9152,19 +9152,19 @@
         <v>680</v>
       </c>
       <c r="T133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U133">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V133">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W133">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X133">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="134" spans="1:24">
@@ -9202,19 +9202,19 @@
         <v>680</v>
       </c>
       <c r="T134">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U134">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:24">
@@ -9252,19 +9252,19 @@
         <v>680</v>
       </c>
       <c r="T135">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U135">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:24">
@@ -9302,19 +9302,19 @@
         <v>680</v>
       </c>
       <c r="T136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U136">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W136">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="X136">
-        <v>0</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="137" spans="1:24">
@@ -9352,19 +9352,19 @@
         <v>680</v>
       </c>
       <c r="T137">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U137">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="V137">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W137">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X137">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="138" spans="1:24">
@@ -9402,19 +9402,19 @@
         <v>680</v>
       </c>
       <c r="T138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U138">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="V138">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W138">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X138">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="139" spans="1:24">
@@ -9452,19 +9452,19 @@
         <v>680</v>
       </c>
       <c r="T139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U139">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="V139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W139">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="X139">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="140" spans="1:24">
@@ -9502,19 +9502,19 @@
         <v>680</v>
       </c>
       <c r="T140">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U140">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W140">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="X140">
-        <v>0</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="141" spans="1:24">
@@ -9552,19 +9552,19 @@
         <v>680</v>
       </c>
       <c r="T141">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="U141">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="V141">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="W141">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X141">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="142" spans="1:24">

--- a/files/separadas/repeat_p13.xlsx
+++ b/files/separadas/repeat_p13.xlsx
@@ -10002,19 +10002,19 @@
         <v>680</v>
       </c>
       <c r="T150">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U150">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V150">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W150">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X150">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="151" spans="1:24">
@@ -10052,19 +10052,19 @@
         <v>680</v>
       </c>
       <c r="T151">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U151">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V151">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W151">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X151">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="152" spans="1:24">
@@ -10102,19 +10102,19 @@
         <v>680</v>
       </c>
       <c r="T152">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U152">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="V152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W152">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X152">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="153" spans="1:24">

--- a/files/separadas/repeat_p13.xlsx
+++ b/files/separadas/repeat_p13.xlsx
@@ -10002,19 +10002,19 @@
         <v>680</v>
       </c>
       <c r="T150">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U150">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V150">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W150">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X150">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:24">
@@ -10052,19 +10052,19 @@
         <v>680</v>
       </c>
       <c r="T151">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U151">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V151">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W151">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X151">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:24">
@@ -10102,19 +10102,19 @@
         <v>680</v>
       </c>
       <c r="T152">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U152">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W152">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="X152">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:24">

--- a/files/separadas/repeat_p13.xlsx
+++ b/files/separadas/repeat_p13.xlsx
@@ -894,19 +894,19 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7">
@@ -964,19 +964,19 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="8">
@@ -1034,19 +1034,19 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="9">
@@ -4962,19 +4962,19 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X64" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="65">
@@ -5032,19 +5032,19 @@
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X65" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="66">
@@ -5102,19 +5102,19 @@
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="V66" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="W66" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="X66" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="67">
@@ -5172,19 +5172,19 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X67" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="68">
@@ -5242,19 +5242,19 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X68" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="69">

--- a/files/separadas/repeat_p13.xlsx
+++ b/files/separadas/repeat_p13.xlsx
@@ -6067,7 +6067,7 @@
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="97">
@@ -6125,7 +6125,7 @@
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="98">
@@ -6183,7 +6183,7 @@
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="99">

--- a/files/separadas/repeat_p13.xlsx
+++ b/files/separadas/repeat_p13.xlsx
@@ -1000,7 +1000,7 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="10">
@@ -5598,7 +5598,7 @@
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="89">
@@ -8987,7 +8987,7 @@
       <c r="R146" t="inlineStr"/>
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="147">
@@ -10736,7 +10736,7 @@
       <c r="R176" t="inlineStr"/>
       <c r="S176" t="inlineStr"/>
       <c r="T176" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="177">
@@ -11968,7 +11968,7 @@
       <c r="R197" t="inlineStr"/>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -12206,7 +12206,7 @@
       <c r="R201" t="inlineStr"/>
       <c r="S201" t="inlineStr"/>
       <c r="T201" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="202">
